--- a/data_output/prism_passive/all_passive_out_strain_GMapo_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_GMapo_submax_1.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,130 +513,130 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-1.7950279291898252</v>
+        <v>-1.7950279317559343</v>
       </c>
       <c r="C2">
-        <v>-3.1363560119549709</v>
+        <v>-3.1363559822166343</v>
       </c>
       <c r="D2">
-        <v>-5.286986586742862</v>
+        <v>-5.2869865759925396</v>
       </c>
       <c r="E2">
-        <v>-4.2982435891954882</v>
+        <v>-4.2982435780258523</v>
       </c>
       <c r="F2">
-        <v>-14.651696929503794</v>
+        <v>-14.651696917787302</v>
       </c>
       <c r="G2">
-        <v>7.1607882534239264</v>
+        <v>7.1607882795477682</v>
       </c>
       <c r="H2">
-        <v>-5.683797440977564</v>
+        <v>-5.6837974408959653</v>
       </c>
       <c r="I2">
-        <v>5.2478014850866117</v>
+        <v>5.2478015057443397</v>
       </c>
       <c r="J2">
-        <v>4.7631547050640819</v>
+        <v>4.7631547152090095</v>
       </c>
       <c r="K2">
-        <v>-13.852449291447854</v>
+        <v>-13.852449285731225</v>
       </c>
       <c r="L2">
-        <v>7.5521064850375312</v>
+        <v>7.552106483275506</v>
       </c>
       <c r="N2">
-        <v>-0.15724602502129439</v>
+        <v>-0.15724603023077313</v>
       </c>
       <c r="O2">
-        <v>9.0122792180894074</v>
+        <v>9.0122792222772556</v>
       </c>
       <c r="P2">
-        <v>-1.2246401247645045</v>
+        <v>-1.2246400903487724</v>
       </c>
       <c r="Q2">
-        <v>-2.8258794786742243</v>
+        <v>-2.825879456585723</v>
       </c>
       <c r="S2">
-        <v>5.8044436618798256</v>
+        <v>5.8044436631159737</v>
       </c>
       <c r="V2">
-        <v>-6.9598202710381658</v>
+        <v>-6.9598202436816834</v>
       </c>
       <c r="W2">
-        <v>8.2650082956586655</v>
+        <v>8.2650083158606389</v>
       </c>
       <c r="X2">
-        <v>-2.0103768964409068</v>
+        <v>-2.0103768861482614</v>
       </c>
       <c r="AA2">
-        <v>8.226204852666223</v>
+        <v>8.226204845193557</v>
       </c>
       <c r="AB2">
-        <v>-2.5146678801034876</v>
+        <v>-2.5146678737234498</v>
       </c>
       <c r="AC2">
-        <v>6.3039521544730945</v>
+        <v>6.3039521999879655</v>
       </c>
       <c r="AD2">
-        <v>-6.2037789919935342</v>
+        <v>-6.2037789644396639</v>
       </c>
       <c r="AE2">
-        <v>-24.572996958033929</v>
+        <v>-24.572996957145982</v>
       </c>
       <c r="AF2">
-        <v>-2.2872761630386136</v>
+        <v>-2.2872761499625613</v>
       </c>
       <c r="AG2">
-        <v>1.1533103551691075</v>
+        <v>1.1533103616544815</v>
       </c>
       <c r="AH2">
-        <v>-2.2500306616050869</v>
+        <v>-2.2500306283577967</v>
       </c>
       <c r="AI2">
-        <v>56.061596070763287</v>
+        <v>56.061596070491603</v>
       </c>
       <c r="AJ2">
-        <v>-2.7561717118405409</v>
+        <v>-2.7561716826884477</v>
       </c>
       <c r="AK2">
-        <v>-3.6130716696962314E-2</v>
+        <v>-3.6130702959628183E-2</v>
       </c>
       <c r="AL2">
-        <v>-7.651754299401226</v>
+        <v>-7.6517542720641929</v>
       </c>
       <c r="AM2">
-        <v>-0.20232328415130302</v>
+        <v>-0.20232329116624329</v>
       </c>
       <c r="AN2">
-        <v>-0.12996850198802343</v>
+        <v>-0.12996849305075028</v>
       </c>
       <c r="AO2">
-        <v>-4.877571325129777</v>
+        <v>-4.8775713064875319</v>
       </c>
       <c r="AQ2">
-        <v>-0.67360850806105721</v>
+        <v>-0.67360850352042334</v>
       </c>
       <c r="AR2">
-        <v>0.5626201982534067</v>
+        <v>0.56262019875718905</v>
       </c>
       <c r="AS2">
-        <v>-1.7004977501663787</v>
+        <v>-1.7004977288241696</v>
       </c>
       <c r="AU2">
-        <v>2.4625338485952053E-2</v>
+        <v>2.462536141827925E-2</v>
       </c>
       <c r="AV2">
-        <v>-1.8663755820440382</v>
+        <v>-1.8663755639625277</v>
       </c>
       <c r="AW2">
-        <v>-2.146877831318855</v>
+        <v>-2.1468778104635562</v>
       </c>
       <c r="AX2">
-        <v>-4.2268361497905858</v>
+        <v>-4.2268361491017394</v>
       </c>
       <c r="AY2">
-        <v>1.4399767333963132</v>
+        <v>1.4399767646306363</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -649,121 +644,121 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2.4489197415319204</v>
+        <v>2.4489197469196764</v>
       </c>
       <c r="C3">
-        <v>-0.85999289935915335</v>
+        <v>-0.85999289113422617</v>
       </c>
       <c r="E3">
-        <v>-11.429647309593561</v>
+        <v>-11.429647314845793</v>
       </c>
       <c r="F3">
-        <v>6.0489567704446596</v>
+        <v>6.0489567791693943</v>
       </c>
       <c r="G3">
-        <v>0.19131311004578361</v>
+        <v>0.19131311373550636</v>
       </c>
       <c r="H3">
-        <v>3.0673456665413199</v>
+        <v>3.0673456825875549</v>
       </c>
       <c r="J3">
-        <v>-0.80498888203716512</v>
+        <v>-0.80498887516378781</v>
       </c>
       <c r="K3">
-        <v>34.50670299971064</v>
+        <v>34.506703018215809</v>
       </c>
       <c r="L3">
-        <v>29.294786348141045</v>
+        <v>29.29478632783491</v>
       </c>
       <c r="M3">
-        <v>-4.0265013442449984</v>
+        <v>-4.0264730511907345</v>
       </c>
       <c r="N3">
-        <v>-0.42542587566744083</v>
+        <v>-0.42542588216476684</v>
       </c>
       <c r="P3">
-        <v>-18.339920300986314</v>
+        <v>-18.339920295137574</v>
       </c>
       <c r="Q3">
-        <v>-3.4314778379420527</v>
+        <v>-3.4314778242782786</v>
       </c>
       <c r="R3">
-        <v>3.3214602803063951</v>
+        <v>3.3214603014130151</v>
       </c>
       <c r="W3">
-        <v>0.99600511584918772</v>
+        <v>0.99600517762664709</v>
       </c>
       <c r="AA3">
-        <v>1.0102915033861593</v>
+        <v>1.0102915320292167</v>
       </c>
       <c r="AB3">
-        <v>-1.8911802589637878</v>
+        <v>-1.8911802415305161</v>
       </c>
       <c r="AC3">
-        <v>1.1253942560729473</v>
+        <v>1.1253942718759233</v>
       </c>
       <c r="AD3">
-        <v>-8.3428378555888152</v>
+        <v>-8.3428378586448506</v>
       </c>
       <c r="AE3">
-        <v>-4.0045406703897353</v>
+        <v>-4.0045406701287956</v>
       </c>
       <c r="AF3">
-        <v>0.20483179684346051</v>
+        <v>0.20483179223631467</v>
       </c>
       <c r="AG3">
-        <v>13.027525091339061</v>
+        <v>13.027525102837217</v>
       </c>
       <c r="AH3">
-        <v>5.5698175078110239</v>
+        <v>5.569817523078135</v>
       </c>
       <c r="AI3">
-        <v>-1.4373990471077944</v>
+        <v>-1.4373990470772224</v>
       </c>
       <c r="AJ3">
-        <v>-0.27884336377700847</v>
+        <v>-0.27884335669876914</v>
       </c>
       <c r="AK3">
-        <v>33.332509424913184</v>
+        <v>33.332509409472472</v>
       </c>
       <c r="AL3">
-        <v>-1.4078831633962741</v>
+        <v>-1.4078831471273616</v>
       </c>
       <c r="AM3">
-        <v>-0.8215496476869959</v>
+        <v>-0.82154962580563484</v>
       </c>
       <c r="AN3">
-        <v>2.1252554756832249</v>
+        <v>2.1252554919598849</v>
       </c>
       <c r="AO3">
-        <v>11.545948847943512</v>
+        <v>11.545948863766853</v>
       </c>
       <c r="AP3">
-        <v>-6.8262336347735335</v>
+        <v>-6.8262336261823942</v>
       </c>
       <c r="AQ3">
-        <v>-2.2389692180173792</v>
+        <v>-2.2389692003039934</v>
       </c>
       <c r="AS3">
-        <v>0.74568233446738486</v>
+        <v>0.74568235349346701</v>
       </c>
       <c r="AT3">
-        <v>-5.2100875271865528</v>
+        <v>-5.2100875018109338</v>
       </c>
       <c r="AU3">
-        <v>-1.0210951154862338</v>
+        <v>-1.0210951006622697</v>
       </c>
       <c r="AV3">
-        <v>-0.95246755456599475</v>
+        <v>-0.95246752467802986</v>
       </c>
       <c r="AW3">
-        <v>-4.0996415720380828</v>
+        <v>-4.0996415542086204</v>
       </c>
       <c r="AX3">
-        <v>-24.511704121624678</v>
+        <v>-24.511704127201167</v>
       </c>
       <c r="AY3">
-        <v>-13.209859166480232</v>
+        <v>-13.209859172079366</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_strain_GMapo_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_GMapo_submax_1.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,256 +401,268 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>-1.7950279317559343</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>-3.1363559822166343</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>-5.2869865759925396</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>-4.2982435780258523</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>-14.651696917787302</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>7.1607882795477682</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>-5.6837974408959653</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>5.2478015057443397</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>4.7631547152090095</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>-13.852449285731225</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>7.552106483275506</v>
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>-0.15724603023077313</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>9.0122792222772556</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>-1.2246400903487724</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>-2.825879456585723</v>
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>5.8044436631159737</v>
+        <v>5.8044993939610654</v>
       </c>
       <c r="V2">
-        <v>-6.9598202436816834</v>
+        <v>-6.9597991842990661</v>
       </c>
       <c r="W2">
-        <v>8.2650083158606389</v>
+        <v>8.2650489190456771</v>
       </c>
       <c r="X2">
-        <v>-2.0103768861482614</v>
+        <v>-2.0104265981268403</v>
       </c>
       <c r="AA2">
-        <v>8.226204845193557</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>-2.5146678737234498</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>6.3039521999879655</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>-6.2037789644396639</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>-24.572996957145982</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>-2.2872761499625613</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>1.1533103616544815</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>-2.2500306283577967</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>56.061596070491603</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>-2.7561716826884477</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>-3.6130702959628183E-2</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>-7.6517542720641929</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>-0.20232329116624329</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>-0.12996849305075028</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>-4.8775713064875319</v>
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>-0.67360850352042334</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>0.56262019875718905</v>
       </c>
       <c r="AS2">
-        <v>-1.7004977288241696</v>
+        <v>-1.7004743926404182</v>
       </c>
       <c r="AU2">
         <v>2.462536141827925E-2</v>
       </c>
       <c r="AV2">
-        <v>-1.8663755639625277</v>
+        <v>-1.8663574739564415</v>
       </c>
       <c r="AW2">
-        <v>-2.1468778104635562</v>
+        <v>-2.146929560258291</v>
       </c>
       <c r="AX2">
-        <v>-4.2268361491017394</v>
+        <v>-4.226876824271752</v>
       </c>
       <c r="AY2">
-        <v>1.4399767646306363</v>
+        <v>1.439947761475898</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>2.4489197469196764</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>-0.85999289113422617</v>
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>-11.429647314845793</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>6.0489567791693943</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.19131311373550636</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>3.0673456825875549</v>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>-0.80498887516378781</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>34.506703018215809</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>29.29478632783491</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>-4.0264730511907345</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>-0.42542588216476684</v>
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>-18.339920295137574</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>-3.4314778242782786</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>3.3214603014130151</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0.99600517762664709</v>
+        <v>0.99600517762665863</v>
       </c>
       <c r="AA3">
-        <v>1.0102915320292167</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>-1.8911802415305161</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>1.1253942718759233</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>-8.3428378586448506</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>-4.0045406701287956</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.20483179223631467</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>13.027525102837217</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>5.569817523078135</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>-1.4373990470772224</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>-0.27884335669876914</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>33.332509409472472</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>-1.4078831471273616</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>-0.82154962580563484</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>2.1252554919598849</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>11.545948863766853</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>-6.8262336261823942</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>-2.2389692003039934</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.74568235349346701</v>
+        <v>0.74565786029958159</v>
       </c>
       <c r="AT3">
-        <v>-5.2100875018109338</v>
+        <v>-5.2100559546023311</v>
       </c>
       <c r="AU3">
         <v>-1.0210951006622697</v>
       </c>
       <c r="AV3">
-        <v>-0.95246752467802986</v>
+        <v>-0.95251971154550497</v>
       </c>
       <c r="AW3">
-        <v>-4.0996415542086204</v>
+        <v>-4.0996179171625666</v>
       </c>
       <c r="AX3">
-        <v>-24.511704127201167</v>
+        <v>-22.319154846502681</v>
       </c>
       <c r="AY3">
-        <v>-13.209859172079366</v>
+        <v>20.689973994348936</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_strain_GMapo_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_GMapo_submax_1.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-1.7949679058690691</v>
-      </c>
-      <c r="C2">
-        <v>0.53896100588963869</v>
+        <v>9.0122213228944847</v>
       </c>
       <c r="D2">
-        <v>-5.287022247224896</v>
+        <v>-0.12996849305077129</v>
       </c>
       <c r="E2">
-        <v>-8.1958091844752978</v>
+        <v>-0.67359004972923542</v>
       </c>
       <c r="F2">
         <v>-14.651673667287074</v>
@@ -648,14 +640,14 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>2.4489197415319204</v>
-      </c>
       <c r="C3">
-        <v>0.32068421187630919</v>
+        <v>3.3215006037958563</v>
+      </c>
+      <c r="D3">
+        <v>2.1252554919599076</v>
       </c>
       <c r="E3">
-        <v>-11.429647309593545</v>
+        <v>-2.3892836560151847</v>
       </c>
       <c r="F3">
         <v>6.0489274237665818</v>

--- a/data_output/prism_passive/all_passive_out_strain_GMapo_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_GMapo_submax_1.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-1.7949679058690691</v>
+        <v>10.751229216652829</v>
       </c>
       <c r="C2">
-        <v>0.53896100588963869</v>
+        <v>9.0122213228944847</v>
       </c>
       <c r="D2">
-        <v>-5.287022247224896</v>
+        <v>8.3612921469643791</v>
       </c>
       <c r="E2">
-        <v>-8.1958091844752978</v>
+        <v>-0.12996849305077129</v>
       </c>
       <c r="F2">
         <v>-14.651673667287074</v>
@@ -649,13 +644,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2.4489197415319204</v>
-      </c>
-      <c r="C3">
-        <v>0.32068421187630919</v>
+        <v>28.400687749377862</v>
+      </c>
+      <c r="D3">
+        <v>1.4618867507713229</v>
       </c>
       <c r="E3">
-        <v>-11.429647309593545</v>
+        <v>2.1252554919599076</v>
       </c>
       <c r="F3">
         <v>6.0489274237665818</v>

--- a/data_output/prism_passive/all_passive_out_strain_GMapo_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_GMapo_submax_1.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,130 +513,130 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>-1.7949679084351795</v>
+      </c>
+      <c r="C2">
+        <v>0.5389610367563431</v>
+      </c>
+      <c r="D2">
+        <v>-5.287022236474578</v>
+      </c>
+      <c r="E2">
+        <v>-8.1958091737605585</v>
+      </c>
+      <c r="F2">
+        <v>-14.65167365557058</v>
+      </c>
+      <c r="G2">
+        <v>7.1608414676404806</v>
+      </c>
+      <c r="H2">
+        <v>-5.6838278389010206</v>
+      </c>
+      <c r="I2">
+        <v>5.2478015057443397</v>
+      </c>
+      <c r="J2">
+        <v>4.7631547152090459</v>
+      </c>
+      <c r="K2">
+        <v>6.3012889460149903</v>
+      </c>
+      <c r="L2">
+        <v>7.5522050953072934</v>
+      </c>
+      <c r="N2">
         <v>10.751229216652829</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>9.0122213228944847</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>-1.2246400903487724</v>
+      </c>
+      <c r="Q2">
+        <v>-6.5196505929373174</v>
+      </c>
+      <c r="S2">
+        <v>5.8044993939610654</v>
+      </c>
+      <c r="V2">
+        <v>-6.9597991842990661</v>
+      </c>
+      <c r="W2">
+        <v>8.2650489190456771</v>
+      </c>
+      <c r="X2">
+        <v>-2.0104265981268403</v>
+      </c>
+      <c r="AA2">
+        <v>8.2262048451935446</v>
+      </c>
+      <c r="AB2">
+        <v>15.925508701498877</v>
+      </c>
+      <c r="AC2">
+        <v>6.3038697988702523</v>
+      </c>
+      <c r="AD2">
+        <v>-1.2051040748419983</v>
+      </c>
+      <c r="AE2">
+        <v>-24.572996957145982</v>
+      </c>
+      <c r="AF2">
+        <v>-2.2872761499625613</v>
+      </c>
+      <c r="AG2">
+        <v>1.1533451343003547</v>
+      </c>
+      <c r="AH2">
+        <v>-2.2500306283577967</v>
+      </c>
+      <c r="AI2">
+        <v>56.061671688823544</v>
+      </c>
+      <c r="AJ2">
+        <v>-1.0086985842407832</v>
+      </c>
+      <c r="AK2">
+        <v>-3.6177390741800791E-2</v>
+      </c>
+      <c r="AL2">
+        <v>-7.6517779135744926</v>
+      </c>
+      <c r="AM2">
         <v>8.3612921469643791</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>-0.12996849305077129</v>
       </c>
-      <c r="F2">
-        <v>-14.651673667287074</v>
-      </c>
-      <c r="G2">
-        <v>7.1608414415166255</v>
-      </c>
-      <c r="H2">
-        <v>-5.6838278389826193</v>
-      </c>
-      <c r="I2">
-        <v>5.2478014850866117</v>
-      </c>
-      <c r="J2">
-        <v>4.7631547050641183</v>
-      </c>
-      <c r="K2">
-        <v>6.3012889389609876</v>
-      </c>
-      <c r="L2">
-        <v>7.5522050970693204</v>
-      </c>
-      <c r="N2">
-        <v>10.751229222431478</v>
-      </c>
-      <c r="O2">
-        <v>9.01222131870664</v>
-      </c>
-      <c r="P2">
-        <v>-1.2246401247645045</v>
-      </c>
-      <c r="Q2">
-        <v>-6.5196506141861938</v>
-      </c>
-      <c r="S2">
-        <v>5.8044993927249164</v>
-      </c>
-      <c r="V2">
-        <v>-6.9597992116555538</v>
-      </c>
-      <c r="W2">
-        <v>8.2650488988436965</v>
-      </c>
-      <c r="X2">
-        <v>-2.0104266084194804</v>
-      </c>
-      <c r="AA2">
-        <v>8.2262048526662088</v>
-      </c>
-      <c r="AB2">
-        <v>15.925508693911999</v>
-      </c>
-      <c r="AC2">
-        <v>6.3038697533554178</v>
-      </c>
-      <c r="AD2">
-        <v>-1.2051041038642953</v>
-      </c>
-      <c r="AE2">
-        <v>-24.572996958033929</v>
-      </c>
-      <c r="AF2">
-        <v>-2.2872761630386136</v>
-      </c>
-      <c r="AG2">
-        <v>1.1533451278149784</v>
-      </c>
-      <c r="AH2">
-        <v>-2.2500306616050869</v>
-      </c>
-      <c r="AI2">
-        <v>56.061671689095235</v>
-      </c>
-      <c r="AJ2">
-        <v>-1.00869861391674</v>
-      </c>
-      <c r="AK2">
-        <v>-3.6177404479128511E-2</v>
-      </c>
-      <c r="AL2">
-        <v>-7.6517779409115176</v>
-      </c>
-      <c r="AM2">
-        <v>8.3612921545812693</v>
-      </c>
-      <c r="AN2">
-        <v>-0.12996850198804444</v>
-      </c>
       <c r="AO2">
-        <v>-4.8775896255773894</v>
+        <v>-4.8775896069351479</v>
       </c>
       <c r="AQ2">
-        <v>-0.67359005426987006</v>
+        <v>-0.67359004972923542</v>
       </c>
       <c r="AR2">
-        <v>0.5626201982534067</v>
+        <v>0.56262019875718905</v>
       </c>
       <c r="AS2">
-        <v>-1.7004744139826327</v>
+        <v>-1.7004743926404182</v>
       </c>
       <c r="AU2">
-        <v>2.4625338485952053E-2</v>
+        <v>2.462536141827925E-2</v>
       </c>
       <c r="AV2">
-        <v>-1.8663574920379555</v>
+        <v>-1.8663574739564415</v>
       </c>
       <c r="AW2">
-        <v>-2.1469295811135791</v>
+        <v>-2.146929560258291</v>
       </c>
       <c r="AX2">
-        <v>-4.2268768249605992</v>
+        <v>-4.226876824271752</v>
       </c>
       <c r="AY2">
-        <v>1.4399477302415837</v>
+        <v>1.439947761475898</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -644,121 +644,121 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>2.4489197469196764</v>
+      </c>
+      <c r="C3">
+        <v>0.32068422019918857</v>
+      </c>
+      <c r="E3">
+        <v>-11.429647314845779</v>
+      </c>
+      <c r="F3">
+        <v>6.0489274324913129</v>
+      </c>
+      <c r="G3">
+        <v>0.19131311373550636</v>
+      </c>
+      <c r="H3">
+        <v>3.0672709765064288</v>
+      </c>
+      <c r="J3">
+        <v>13.036117314255943</v>
+      </c>
+      <c r="K3">
+        <v>34.506703018215809</v>
+      </c>
+      <c r="L3">
+        <v>29.294735173695358</v>
+      </c>
+      <c r="M3">
+        <v>-4.0264505871982204</v>
+      </c>
+      <c r="N3">
         <v>28.400687749377862</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>-18.339905159838079</v>
+      </c>
+      <c r="Q3">
+        <v>-3.4315199786768247</v>
+      </c>
+      <c r="R3">
+        <v>3.3215006037958563</v>
+      </c>
+      <c r="W3">
+        <v>1.2296706960188528</v>
+      </c>
+      <c r="AA3">
+        <v>1.0102915320292167</v>
+      </c>
+      <c r="AB3">
+        <v>0.99375040878958687</v>
+      </c>
+      <c r="AC3">
+        <v>1.1253942718759233</v>
+      </c>
+      <c r="AD3">
+        <v>-8.342856380875336</v>
+      </c>
+      <c r="AE3">
+        <v>-4.0045406701288151</v>
+      </c>
+      <c r="AF3">
+        <v>0.20485769307679916</v>
+      </c>
+      <c r="AG3">
+        <v>13.027525102837217</v>
+      </c>
+      <c r="AH3">
+        <v>5.6425873865820231</v>
+      </c>
+      <c r="AI3">
+        <v>0.26955381646687593</v>
+      </c>
+      <c r="AJ3">
+        <v>-0.27881254074409217</v>
+      </c>
+      <c r="AK3">
+        <v>33.332509409472536</v>
+      </c>
+      <c r="AL3">
+        <v>-1.4078831471273616</v>
+      </c>
+      <c r="AM3">
         <v>1.4618867507713229</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>2.1252554919599076</v>
       </c>
-      <c r="F3">
-        <v>6.0489274237665818</v>
-      </c>
-      <c r="G3">
-        <v>0.19131311004578361</v>
-      </c>
-      <c r="H3">
-        <v>3.0672709604602049</v>
-      </c>
-      <c r="J3">
-        <v>13.036117306423495</v>
-      </c>
-      <c r="K3">
-        <v>34.50670299971064</v>
-      </c>
-      <c r="L3">
-        <v>29.294735194001486</v>
-      </c>
-      <c r="M3">
-        <v>-4.0264788802591074</v>
-      </c>
-      <c r="N3">
-        <v>28.400687757756117</v>
-      </c>
-      <c r="P3">
-        <v>-18.339905165686822</v>
-      </c>
-      <c r="Q3">
-        <v>-3.4315199923405926</v>
-      </c>
-      <c r="R3">
-        <v>3.3215005826892283</v>
-      </c>
-      <c r="W3">
-        <v>1.2296706341581611</v>
-      </c>
-      <c r="AA3">
-        <v>1.0102915033861593</v>
-      </c>
-      <c r="AB3">
-        <v>0.99375039084368277</v>
-      </c>
-      <c r="AC3">
-        <v>1.1253942560729473</v>
-      </c>
-      <c r="AD3">
-        <v>-8.3428563778193023</v>
-      </c>
-      <c r="AE3">
-        <v>-4.0045406703897548</v>
-      </c>
-      <c r="AF3">
-        <v>0.20485769768394624</v>
-      </c>
-      <c r="AG3">
-        <v>13.027525091339061</v>
-      </c>
-      <c r="AH3">
-        <v>5.6425873800820492</v>
-      </c>
-      <c r="AI3">
-        <v>0.26955381643577453</v>
-      </c>
-      <c r="AJ3">
-        <v>-0.27881254782233372</v>
-      </c>
-      <c r="AK3">
-        <v>33.332509424913248</v>
-      </c>
-      <c r="AL3">
-        <v>-1.4078831633962741</v>
-      </c>
-      <c r="AM3">
-        <v>1.4618867283861758</v>
-      </c>
-      <c r="AN3">
-        <v>2.1252554756832476</v>
-      </c>
       <c r="AO3">
-        <v>11.545970161274841</v>
+        <v>11.545970177098186</v>
       </c>
       <c r="AP3">
-        <v>-6.8262732918764275</v>
+        <v>-6.8262732832852935</v>
       </c>
       <c r="AQ3">
-        <v>-2.3892836805863884</v>
+        <v>-2.3892836560151847</v>
       </c>
       <c r="AS3">
-        <v>0.74565784127350421</v>
+        <v>0.74565786029958159</v>
       </c>
       <c r="AT3">
-        <v>-5.2100559799779589</v>
+        <v>-5.2100559546023311</v>
       </c>
       <c r="AU3">
-        <v>-1.0210951154862338</v>
+        <v>-1.0210951006622697</v>
       </c>
       <c r="AV3">
-        <v>-0.95251974143345419</v>
+        <v>-0.95251971154550497</v>
       </c>
       <c r="AW3">
-        <v>-4.0996179349920325</v>
+        <v>-4.0996179171625666</v>
       </c>
       <c r="AX3">
-        <v>-22.31915484076422</v>
+        <v>-22.319154846502681</v>
       </c>
       <c r="AY3">
-        <v>20.689974002135063</v>
+        <v>20.689973994348936</v>
       </c>
     </row>
   </sheetData>
